--- a/Data Comps_Final.xlsx
+++ b/Data Comps_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerzeigler/Documents/Flowers Lab/Apatite Nano-CT Project_Feb 2019_June 2020/apatite-project-git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDA5C16-F9A9-114F-9AFB-04B27F912DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE98F87-AB40-B946-9167-627ECF25633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="12020" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,15 +1205,6 @@
     <t>FUUUUUUUUUCK</t>
   </si>
   <si>
-    <t>gem.simple</t>
-  </si>
-  <si>
-    <t>gc.simple</t>
-  </si>
-  <si>
-    <t>ri.simple</t>
-  </si>
-  <si>
     <t>broken?</t>
   </si>
   <si>
@@ -1380,6 +1371,15 @@
   </si>
   <si>
     <t>there is a bit that juts out..check it out on the plot</t>
+  </si>
+  <si>
+    <t>gem.newe</t>
+  </si>
+  <si>
+    <t>gc.new</t>
+  </si>
+  <si>
+    <t>ri.new</t>
   </si>
 </sst>
 </file>
@@ -2067,10 +2067,10 @@
   <dimension ref="A1:AU268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D160" sqref="D160"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2092,31 +2092,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="55" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>391</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H2" t="s">
         <v>274</v>
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H13" t="s">
         <v>274</v>
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H15" t="s">
         <v>274</v>
@@ -4397,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H18" t="s">
         <v>274</v>
@@ -4534,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H19" t="s">
         <v>275</v>
@@ -4671,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H20" t="s">
         <v>274</v>
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H23" t="s">
         <v>274</v>
@@ -7089,7 +7089,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H38" t="s">
         <v>275</v>
@@ -7360,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H40" t="s">
         <v>274</v>
@@ -7631,7 +7631,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H42" t="s">
         <v>275</v>
@@ -7768,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H43" t="s">
         <v>274</v>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H45" t="s">
         <v>274</v>
@@ -8709,7 +8709,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H50" t="s">
         <v>275</v>
@@ -9114,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H53" t="s">
         <v>274</v>
@@ -9519,10 +9519,10 @@
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G56" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H56" t="s">
         <v>274</v>
@@ -9659,7 +9659,7 @@
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H57" t="s">
         <v>275</v>
@@ -9796,7 +9796,7 @@
         <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H58" t="s">
         <v>275</v>
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="58" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H59" t="s">
         <v>274</v>
@@ -10070,10 +10070,10 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G60" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H60" t="s">
         <v>275</v>
@@ -10344,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H62" t="s">
         <v>274</v>
@@ -10615,7 +10615,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H64" t="s">
         <v>274</v>
@@ -10886,10 +10886,10 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G66" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H66" t="s">
         <v>275</v>
@@ -11014,10 +11014,10 @@
     </row>
     <row r="67" spans="1:47">
       <c r="A67" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B67" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C67" t="s">
         <v>274</v>
@@ -11029,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H67" t="s">
         <v>274</v>
@@ -11702,7 +11702,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H72" t="s">
         <v>274</v>
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H74" t="s">
         <v>274</v>
@@ -12768,10 +12768,10 @@
     </row>
     <row r="80" spans="1:47">
       <c r="A80" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B80" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C80" t="s">
         <v>277</v>
@@ -12905,10 +12905,10 @@
     </row>
     <row r="81" spans="1:47">
       <c r="A81" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B81" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C81" t="s">
         <v>274</v>
@@ -12920,7 +12920,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H81" t="s">
         <v>274</v>
@@ -13179,10 +13179,10 @@
     </row>
     <row r="83" spans="1:47">
       <c r="A83" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B83" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C83" t="s">
         <v>277</v>
@@ -13462,7 +13462,7 @@
         <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H85" t="s">
         <v>275</v>
@@ -13733,7 +13733,7 @@
         <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H87" t="s">
         <v>275</v>
@@ -14808,10 +14808,10 @@
         <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G95" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H95" t="s">
         <v>275</v>
@@ -14936,10 +14936,10 @@
     </row>
     <row r="96" spans="1:47">
       <c r="A96" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B96" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C96" t="s">
         <v>289</v>
@@ -14951,7 +14951,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H96" t="s">
         <v>277</v>
@@ -15624,7 +15624,7 @@
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H101" t="s">
         <v>275</v>
@@ -16029,7 +16029,7 @@
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H104" t="s">
         <v>274</v>
@@ -16166,10 +16166,10 @@
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G105" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H105" t="s">
         <v>274</v>
@@ -16294,10 +16294,10 @@
     </row>
     <row r="106" spans="1:47">
       <c r="A106" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B106" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C106" t="s">
         <v>275</v>
@@ -16309,7 +16309,7 @@
         <v>2</v>
       </c>
       <c r="F106" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H106" t="s">
         <v>274</v>
@@ -16568,10 +16568,10 @@
     </row>
     <row r="108" spans="1:47">
       <c r="A108" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B108" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C108" t="s">
         <v>286</v>
@@ -16583,7 +16583,7 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H108" t="s">
         <v>276</v>
@@ -16708,10 +16708,10 @@
     </row>
     <row r="109" spans="1:47">
       <c r="A109" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B109" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C109" t="s">
         <v>276</v>
@@ -16845,10 +16845,10 @@
     </row>
     <row r="110" spans="1:47">
       <c r="A110" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B110" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C110" t="s">
         <v>286</v>
@@ -17128,7 +17128,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H112" t="s">
         <v>277</v>
@@ -17253,10 +17253,10 @@
     </row>
     <row r="113" spans="1:47">
       <c r="A113" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B113" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C113" t="s">
         <v>289</v>
@@ -17268,7 +17268,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H113" t="s">
         <v>277</v>
@@ -17393,10 +17393,10 @@
     </row>
     <row r="114" spans="1:47">
       <c r="A114" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B114" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C114" t="s">
         <v>276</v>
@@ -17530,10 +17530,10 @@
     </row>
     <row r="115" spans="1:47">
       <c r="A115" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B115" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C115" t="s">
         <v>289</v>
@@ -17667,10 +17667,10 @@
     </row>
     <row r="116" spans="1:47">
       <c r="A116" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B116" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C116" t="s">
         <v>286</v>
@@ -17682,7 +17682,7 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H116" t="s">
         <v>276</v>
@@ -17941,10 +17941,10 @@
     </row>
     <row r="118" spans="1:47">
       <c r="A118" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B118" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C118" t="s">
         <v>277</v>
@@ -18078,10 +18078,10 @@
     </row>
     <row r="119" spans="1:47">
       <c r="A119" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B119" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C119" t="s">
         <v>276</v>
@@ -18215,10 +18215,10 @@
     </row>
     <row r="120" spans="1:47">
       <c r="A120" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B120" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C120" t="s">
         <v>276</v>
@@ -18352,10 +18352,10 @@
     </row>
     <row r="121" spans="1:47">
       <c r="A121" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B121" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C121" t="s">
         <v>275</v>
@@ -18623,10 +18623,10 @@
     </row>
     <row r="123" spans="1:47">
       <c r="A123" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B123" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C123" t="s">
         <v>277</v>
@@ -18760,10 +18760,10 @@
     </row>
     <row r="124" spans="1:47">
       <c r="A124" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B124" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C124" t="s">
         <v>275</v>
@@ -18775,7 +18775,7 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H124" t="s">
         <v>275</v>
@@ -19034,10 +19034,10 @@
     </row>
     <row r="126" spans="1:47">
       <c r="A126" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B126" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C126" t="s">
         <v>277</v>
@@ -19171,10 +19171,10 @@
     </row>
     <row r="127" spans="1:47">
       <c r="A127" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B127" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C127" t="s">
         <v>276</v>
@@ -19186,7 +19186,7 @@
         <v>2</v>
       </c>
       <c r="G127" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H127" t="s">
         <v>275</v>
@@ -19713,10 +19713,10 @@
     </row>
     <row r="131" spans="1:47">
       <c r="A131" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B131" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C131" t="s">
         <v>274</v>
@@ -19728,7 +19728,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H131" t="s">
         <v>274</v>
@@ -19853,10 +19853,10 @@
     </row>
     <row r="132" spans="1:47">
       <c r="A132" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B132" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C132" t="s">
         <v>276</v>
@@ -19868,10 +19868,10 @@
         <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G132" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H132" t="s">
         <v>275</v>
@@ -20008,10 +20008,10 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G133" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H133" t="s">
         <v>274</v>
@@ -20136,10 +20136,10 @@
     </row>
     <row r="134" spans="1:47">
       <c r="A134" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B134" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C134" t="s">
         <v>275</v>
@@ -20273,10 +20273,10 @@
     </row>
     <row r="135" spans="1:47">
       <c r="A135" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B135" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C135" t="s">
         <v>274</v>
@@ -20678,10 +20678,10 @@
     </row>
     <row r="138" spans="1:47">
       <c r="A138" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B138" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C138" t="s">
         <v>277</v>
@@ -20693,7 +20693,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H138" t="s">
         <v>274</v>
@@ -20818,10 +20818,10 @@
     </row>
     <row r="139" spans="1:47">
       <c r="A139" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B139" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C139" t="s">
         <v>277</v>
@@ -20955,10 +20955,10 @@
     </row>
     <row r="140" spans="1:47">
       <c r="A140" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B140" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C140" t="s">
         <v>275</v>
@@ -20970,10 +20970,10 @@
         <v>2</v>
       </c>
       <c r="F140" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G140" s="59" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H140" t="s">
         <v>274</v>
@@ -21098,10 +21098,10 @@
     </row>
     <row r="141" spans="1:47">
       <c r="A141" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B141" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C141" t="s">
         <v>277</v>
@@ -21247,10 +21247,10 @@
         <v>1</v>
       </c>
       <c r="F142" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G142" s="59" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H142" t="s">
         <v>274</v>
@@ -21387,7 +21387,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H143" t="s">
         <v>274</v>
@@ -21524,7 +21524,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H144" t="s">
         <v>275</v>
@@ -21661,7 +21661,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H145" t="s">
         <v>274</v>
@@ -21798,10 +21798,10 @@
         <v>2</v>
       </c>
       <c r="F146" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G146" s="59" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H146" t="s">
         <v>275</v>
@@ -21938,10 +21938,10 @@
         <v>2</v>
       </c>
       <c r="F147" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G147" s="59" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H147" t="s">
         <v>275</v>
@@ -22078,10 +22078,10 @@
         <v>2</v>
       </c>
       <c r="F148" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G148" s="59" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H148" t="s">
         <v>275</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="F149" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H149" t="s">
         <v>275</v>
@@ -22343,10 +22343,10 @@
     </row>
     <row r="150" spans="1:47">
       <c r="A150" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B150" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C150" t="s">
         <v>276</v>
@@ -22358,10 +22358,10 @@
         <v>2</v>
       </c>
       <c r="F150" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G150" s="59" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H150" t="s">
         <v>275</v>
@@ -22620,10 +22620,10 @@
     </row>
     <row r="152" spans="1:47">
       <c r="A152" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B152" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C152" t="s">
         <v>274</v>
@@ -23037,7 +23037,7 @@
         <v>2</v>
       </c>
       <c r="F155" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H155" t="s">
         <v>275</v>
@@ -23308,7 +23308,7 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H157" t="s">
         <v>275</v>
@@ -23445,7 +23445,7 @@
         <v>2</v>
       </c>
       <c r="F158" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H158" t="s">
         <v>277</v>
@@ -26820,10 +26820,10 @@
     </row>
     <row r="185" spans="1:47">
       <c r="A185" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B185" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H185" t="s">
         <v>275</v>
@@ -33073,10 +33073,10 @@
     </row>
     <row r="235" spans="1:47">
       <c r="A235" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B235" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H235" t="s">
         <v>274</v>
@@ -33451,10 +33451,10 @@
     </row>
     <row r="238" spans="1:47" s="46" customFormat="1">
       <c r="A238" s="46" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B238" s="46" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H238" s="46" t="s">
         <v>276</v>
@@ -35954,10 +35954,10 @@
     </row>
     <row r="258" spans="1:47">
       <c r="A258" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B258" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H258" t="s">
         <v>275</v>
